--- a/Payload Ops Tests/LogFiles.xlsx
+++ b/Payload Ops Tests/LogFiles.xlsx
@@ -373,6 +373,87 @@
   </x:si>
   <x:si>
     <x:t>6714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:03:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5908</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:03:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4989</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9829</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:03:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>661</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:04:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:04:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6782</x:t>
+  </x:si>
+  <x:si>
+    <x:t>464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:04:52 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:05:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:05:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2463</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9995</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:05:08 PM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -706,16 +787,16 @@
   <x:sheetData>
     <x:row r="1">
       <x:c r="A1" t="s">
-        <x:v>14</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>113</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>115</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Payload Ops Tests/LogFiles.xlsx
+++ b/Payload Ops Tests/LogFiles.xlsx
@@ -454,6 +454,57 @@
   </x:si>
   <x:si>
     <x:t>2024 November 14 1:05:08 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:17:12 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:17:13 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:17:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7538</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:53:24 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1593</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:53:25 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -787,10 +838,10 @@
   <x:sheetData>
     <x:row r="1">
       <x:c r="A1" t="s">
-        <x:v>141</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>142</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C1" t="s">
         <x:v>12</x:v>
